--- a/biology/Botanique/Calamostachyaceae/Calamostachyaceae.xlsx
+++ b/biology/Botanique/Calamostachyaceae/Calamostachyaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calamitaceae sont une famille éteinte de plantes de l’ordre des Equisetales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (8 décembre 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (8 décembre 2019) :
 genre Annularia †
 genre Arthropitys †
 genre Asterophyllites Brongniart †
@@ -525,7 +539,7 @@
 genre Mazostachys †
 genre Palaeostachya †
 genre Paleostachya Weiss. †
-Selon GBIF       (8 décembre 2019)[1] :
+Selon GBIF       (8 décembre 2019) :
 genre Annularia Sternberg, 1821
 genre Archaeocalamites Stur, 1875
 genre Arthropitys Göppert, 1864
@@ -566,7 +580,7 @@
 genre Zimmermannioxylon K.U.Leistikow, 1962
 espèce Sphenophyllum peltatum
 espèce Sphenophyllum vetustum
-Selon IRMNG  (8 décembre 2019)[2] :
+Selon IRMNG  (8 décembre 2019) :
 Acceptés :
 genre Annularia Sternberg, 1821 †
 genre Archaeocalamites Stur, 1875 †
@@ -614,7 +628,7 @@
 genre Asterophyllostachys Schimper in Schimper &amp; Schenk, 1880 †
 genre Mesocalamites Hirmer, 1927 †
 genre Stachannularia C.E. Weiss, 1876 †
-Selon Paleobiology Database                   (8 décembre 2019)[4] :
+Selon Paleobiology Database                   (8 décembre 2019) :
 genre Asterophyllites
 genre Calamites
 genre Calamostachys
